--- a/DATA/shapes.xlsx
+++ b/DATA/shapes.xlsx
@@ -1,32 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F361A5-679B-42CA-A8D2-D7B4374E9A73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LOW STOPS" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>REL</t>
   </si>
   <si>
     <t>CUM</t>
   </si>
+  <si>
+    <t>FIX</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,16 +52,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,14 +82,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -75,7 +127,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -89,7 +141,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -219,6 +270,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-789E-4AD3-8599-085F696291D2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -314,6 +370,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-789E-4AD3-8599-085F696291D2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -409,6 +470,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-789E-4AD3-8599-085F696291D2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -504,6 +570,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-789E-4AD3-8599-085F696291D2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -599,6 +670,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-789E-4AD3-8599-085F696291D2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -694,6 +770,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-789E-4AD3-8599-085F696291D2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -795,6 +876,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-789E-4AD3-8599-085F696291D2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -956,7 +1042,3481 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>FREE FLOW GEOMETRIC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$T$2:$AA$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-CF6A-45D8-911E-364E9A3104CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>lo1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$T$3:$AA$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>349</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-CF6A-45D8-911E-364E9A3104CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>lo2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$T$4:$AA$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>507</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-CF6A-45D8-911E-364E9A3104CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>lo3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$T$5:$AA$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-CF6A-45D8-911E-364E9A3104CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>lo4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$T$6:$AA$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-CF6A-45D8-911E-364E9A3104CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>lo5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$T$7:$AA$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-CF6A-45D8-911E-364E9A3104CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$T$8:$AA$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-CF6A-45D8-911E-364E9A3104CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$T$9:$AA$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-CF6A-45D8-911E-364E9A3104CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$T$10:$AA$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>421</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-CF6A-45D8-911E-364E9A3104CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$T$11:$AA$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-CF6A-45D8-911E-364E9A3104CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$T$12:$AA$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-CF6A-45D8-911E-364E9A3104CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>mi1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$T$13:$AA$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>467</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-CF6A-45D8-911E-364E9A3104CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$T$14:$AA$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000027-CF6A-45D8-911E-364E9A3104CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$T$15:$AA$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>534</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000028-CF6A-45D8-911E-364E9A3104CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$T$16:$AA$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000029-CF6A-45D8-911E-364E9A3104CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="55000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$T$17:$AA$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002A-CF6A-45D8-911E-364E9A3104CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$T$18:$AA$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>558</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002B-CF6A-45D8-911E-364E9A3104CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="98500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$T$19:$AA$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002C-CF6A-45D8-911E-364E9A3104CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$T$20:$AA$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002D-CF6A-45D8-911E-364E9A3104CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LOW STOPS'!$T$21:$AA$21</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>427</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$T$21:$AA$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>427</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002E-CF6A-45D8-911E-364E9A3104CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$T$22:$AA$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002F-CF6A-45D8-911E-364E9A3104CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$B$1:$I$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$T$23:$AA$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000030-CF6A-45D8-911E-364E9A3104CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1701848832"/>
+        <c:axId val="1704782816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1701848832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1704782816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1704782816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1701848832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>AVERAGE GREEN</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2000" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> WAVE TRAJECTORY WITH VARYING SIDE FLOWS</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4512053742994808E-2"/>
+          <c:y val="8.8251320922754742E-2"/>
+          <c:w val="0.88626444062618104"/>
+          <c:h val="0.79921880623277242"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GEOMETRIC no side flows</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$AB$27:$AI$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$T$2:$AA$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6F81-42BC-95E2-D3E657272424}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LOW side flows</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'LOW STOPS'!$AB$29:$AI$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>34.191958118832559</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>30.26037012331475</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>30.630213841891475</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>25.973832986296035</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>36.674786979613117</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>23.393161393877484</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>30.607352057961499</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'LOW STOPS'!$AB$29:$AI$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>34.191958118832559</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>30.26037012331475</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>30.630213841891475</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>25.973832986296035</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>36.674786979613117</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>23.393161393877484</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>30.607352057961499</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$AB$27:$AI$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$AB$28:$AI$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>158.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>226.50000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>288.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>330.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F81-42BC-95E2-D3E657272424}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>HIGH side flows</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'LOW STOPS'!$AB$31:$AI$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>25.13763764649099</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.04832274333226</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21.751033033318876</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>25.484398079110001</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>24.362279473748444</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>28.578440697967984</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>22.395026012100203</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'LOW STOPS'!$AB$31:$AI$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>25.13763764649099</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.04832274333226</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>21.751033033318876</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>25.484398079110001</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>24.362279473748444</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>28.578440697967984</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>22.395026012100203</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$AB$27:$AI$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LOW STOPS'!$AB$30:$AI$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.27272727272728</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.636363636363654</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>407.72727272727275</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>470.45454545454544</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6F81-42BC-95E2-D3E657272424}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="570632608"/>
+        <c:axId val="570637856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="570632608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>DISTANCE [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48034696749882605"/>
+              <c:y val="0.94112618045130692"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="570637856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="570637856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1600">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>TIME AFTER</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1600" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> FIRST JUNCTION [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1600">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.29051330514657209"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="570632608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3004682679748152E-2"/>
+          <c:y val="0.12177219030969677"/>
+          <c:w val="0.31830604332609552"/>
+          <c:h val="0.23220351555201266"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1512,6 +5072,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1529,7 +6121,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1539,6 +6137,85 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>471527</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>97769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>391405</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>28015</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D38A00D5-20D8-4F8E-9BF1-2F228512F776}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>593913</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9578774-7EDC-4C76-8AF7-3EA1EC8356FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1623,6 +6300,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1658,6 +6352,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1833,11 +6544,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2533,4 +7244,2209 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FC8D6A-7A91-4700-8DB5-394543570E45}">
+  <dimension ref="A1:AI31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>500</v>
+      </c>
+      <c r="D1">
+        <v>1500</v>
+      </c>
+      <c r="E1">
+        <v>2000</v>
+      </c>
+      <c r="F1">
+        <v>2500</v>
+      </c>
+      <c r="G1">
+        <v>2750</v>
+      </c>
+      <c r="H1">
+        <v>3000</v>
+      </c>
+      <c r="I1">
+        <v>4000</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>90</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>45</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>C2-B2+IF(C2-B2&lt;=0,120,0)</f>
+        <v>30</v>
+      </c>
+      <c r="M2">
+        <f>D2-C2+IF(D2-C2&lt;=0,120,0)</f>
+        <v>60</v>
+      </c>
+      <c r="N2">
+        <f>E2-D2+IF(E2-D2&lt;=0,120,0)</f>
+        <v>30</v>
+      </c>
+      <c r="O2">
+        <f>F2-E2+IF(F2-E2&lt;=0,120,0)</f>
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <f>G2-F2+IF(G2-F2&lt;=0,120,0)</f>
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <f>H2-G2+IF(H2-G2&lt;=0,120,0)</f>
+        <v>15</v>
+      </c>
+      <c r="R2">
+        <f>I2-H2+IF(I2-H2&lt;=0,120,0)</f>
+        <v>60</v>
+      </c>
+      <c r="T2">
+        <f>$B2+SUM($K2:K2)</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f>$B2+SUM($K2:L2) + IF($B2+SUM($K2:L2)-T2&lt;L$2-K$2,120,0)</f>
+        <v>30</v>
+      </c>
+      <c r="V2">
+        <f>$B2+SUM($K2:M2) + IF($B2+SUM($K2:M2)-U2&lt;M$2-L$2,120,0)</f>
+        <v>90</v>
+      </c>
+      <c r="W2">
+        <f>$B2+SUM($K2:N2) + IF($B2+SUM($K2:N2)-V2&lt;N$2-M$2,120,0)</f>
+        <v>120</v>
+      </c>
+      <c r="X2">
+        <f>$B2+SUM($K2:O2) + IF($B2+SUM($K2:O2)-W2&lt;O$2-N$2,120,0)</f>
+        <v>150</v>
+      </c>
+      <c r="Y2">
+        <f>$B2+SUM($K2:P2) + IF($B2+SUM($K2:P2)-X2&lt;P$2-O$2,120,0)</f>
+        <v>165</v>
+      </c>
+      <c r="Z2">
+        <f>$B2+SUM($K2:Q2) + IF($B2+SUM($K2:Q2)-Y2&lt;Q$2-P$2,120,0)</f>
+        <v>180</v>
+      </c>
+      <c r="AA2">
+        <f>$B2+SUM($K2:R2) + IF($B2+SUM($K2:R2)-Z2&lt;R$2-Q$2,120,0)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>76</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>83</v>
+      </c>
+      <c r="G3">
+        <v>43</v>
+      </c>
+      <c r="H3">
+        <v>103</v>
+      </c>
+      <c r="I3">
+        <v>109</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>C3-B3+IF(C3-B3&lt;=0,120,0)</f>
+        <v>31</v>
+      </c>
+      <c r="M3">
+        <f>D3-C3+IF(D3-C3&lt;=0,120,0)</f>
+        <v>64</v>
+      </c>
+      <c r="N3">
+        <f>E3-D3+IF(E3-D3&lt;=0,120,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f>F3-E3+IF(F3-E3&lt;=0,120,0)</f>
+        <v>62</v>
+      </c>
+      <c r="P3">
+        <f>G3-F3+IF(G3-F3&lt;=0,120,0)</f>
+        <v>80</v>
+      </c>
+      <c r="Q3">
+        <f>H3-G3+IF(H3-G3&lt;=0,120,0)</f>
+        <v>60</v>
+      </c>
+      <c r="R3">
+        <f>I3-H3+IF(I3-H3&lt;=0,120,0)</f>
+        <v>6</v>
+      </c>
+      <c r="T3">
+        <f>$B3+SUM($K3:K3)</f>
+        <v>45</v>
+      </c>
+      <c r="U3">
+        <f>$B3+SUM($K3:L3)</f>
+        <v>76</v>
+      </c>
+      <c r="V3">
+        <f>$B3+SUM($K3:M3)</f>
+        <v>140</v>
+      </c>
+      <c r="W3">
+        <f>$B3+SUM($K3:N3)</f>
+        <v>141</v>
+      </c>
+      <c r="X3">
+        <f>$B3+SUM($K3:O3)</f>
+        <v>203</v>
+      </c>
+      <c r="Y3">
+        <f>$B3+SUM($K3:P3)</f>
+        <v>283</v>
+      </c>
+      <c r="Z3">
+        <f>$B3+SUM($K3:Q3)</f>
+        <v>343</v>
+      </c>
+      <c r="AA3">
+        <f>$B3+SUM($K3:R3)</f>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4">
+        <v>103</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>77</v>
+      </c>
+      <c r="E4">
+        <v>106</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>C4-B4+IF(C4-B4&lt;=0,120,0)</f>
+        <v>31</v>
+      </c>
+      <c r="M4">
+        <f>D4-C4+IF(D4-C4&lt;=0,120,0)</f>
+        <v>63</v>
+      </c>
+      <c r="N4">
+        <f>E4-D4+IF(E4-D4&lt;=0,120,0)</f>
+        <v>29</v>
+      </c>
+      <c r="O4">
+        <f>F4-E4+IF(F4-E4&lt;=0,120,0)</f>
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <f>G4-F4+IF(G4-F4&lt;=0,120,0)</f>
+        <v>111</v>
+      </c>
+      <c r="Q4">
+        <f>H4-G4+IF(H4-G4&lt;=0,120,0)</f>
+        <v>25</v>
+      </c>
+      <c r="R4">
+        <f>I4-H4+IF(I4-H4&lt;=0,120,0)</f>
+        <v>115</v>
+      </c>
+      <c r="T4">
+        <f>$B4+SUM($K4:K4)</f>
+        <v>103</v>
+      </c>
+      <c r="U4">
+        <f>$B4+SUM($K4:L4)</f>
+        <v>134</v>
+      </c>
+      <c r="V4">
+        <f>$B4+SUM($K4:M4)</f>
+        <v>197</v>
+      </c>
+      <c r="W4">
+        <f>$B4+SUM($K4:N4)</f>
+        <v>226</v>
+      </c>
+      <c r="X4">
+        <f>$B4+SUM($K4:O4)</f>
+        <v>256</v>
+      </c>
+      <c r="Y4">
+        <f>$B4+SUM($K4:P4)</f>
+        <v>367</v>
+      </c>
+      <c r="Z4">
+        <f>$B4+SUM($K4:Q4)</f>
+        <v>392</v>
+      </c>
+      <c r="AA4">
+        <f>$B4+SUM($K4:R4)</f>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>99</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>26</v>
+      </c>
+      <c r="G5">
+        <v>96</v>
+      </c>
+      <c r="H5">
+        <v>54</v>
+      </c>
+      <c r="I5">
+        <v>61</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>C5-B5+IF(C5-B5&lt;=0,120,0)</f>
+        <v>31</v>
+      </c>
+      <c r="M5">
+        <f>D5-C5+IF(D5-C5&lt;=0,120,0)</f>
+        <v>63</v>
+      </c>
+      <c r="N5">
+        <f>E5-D5+IF(E5-D5&lt;=0,120,0)</f>
+        <v>30</v>
+      </c>
+      <c r="O5">
+        <f>F5-E5+IF(F5-E5&lt;=0,120,0)</f>
+        <v>17</v>
+      </c>
+      <c r="P5">
+        <f>G5-F5+IF(G5-F5&lt;=0,120,0)</f>
+        <v>70</v>
+      </c>
+      <c r="Q5">
+        <f>H5-G5+IF(H5-G5&lt;=0,120,0)</f>
+        <v>78</v>
+      </c>
+      <c r="R5">
+        <f>I5-H5+IF(I5-H5&lt;=0,120,0)</f>
+        <v>7</v>
+      </c>
+      <c r="T5">
+        <f>$B5+SUM($K5:K5)</f>
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <f>$B5+SUM($K5:L5)</f>
+        <v>36</v>
+      </c>
+      <c r="V5">
+        <f>$B5+SUM($K5:M5)</f>
+        <v>99</v>
+      </c>
+      <c r="W5">
+        <f>$B5+SUM($K5:N5)</f>
+        <v>129</v>
+      </c>
+      <c r="X5">
+        <f>$B5+SUM($K5:O5)</f>
+        <v>146</v>
+      </c>
+      <c r="Y5">
+        <f>$B5+SUM($K5:P5)</f>
+        <v>216</v>
+      </c>
+      <c r="Z5">
+        <f>$B5+SUM($K5:Q5)</f>
+        <v>294</v>
+      </c>
+      <c r="AA5">
+        <f>$B5+SUM($K5:R5)</f>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6">
+        <v>101</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>74</v>
+      </c>
+      <c r="E6">
+        <v>104</v>
+      </c>
+      <c r="F6">
+        <v>80</v>
+      </c>
+      <c r="G6">
+        <v>64</v>
+      </c>
+      <c r="H6">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>28</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>C6-B6+IF(C6-B6&lt;=0,120,0)</f>
+        <v>31</v>
+      </c>
+      <c r="M6">
+        <f>D6-C6+IF(D6-C6&lt;=0,120,0)</f>
+        <v>62</v>
+      </c>
+      <c r="N6">
+        <f>E6-D6+IF(E6-D6&lt;=0,120,0)</f>
+        <v>30</v>
+      </c>
+      <c r="O6">
+        <f>F6-E6+IF(F6-E6&lt;=0,120,0)</f>
+        <v>96</v>
+      </c>
+      <c r="P6">
+        <f>G6-F6+IF(G6-F6&lt;=0,120,0)</f>
+        <v>104</v>
+      </c>
+      <c r="Q6">
+        <f>H6-G6+IF(H6-G6&lt;=0,120,0)</f>
+        <v>80</v>
+      </c>
+      <c r="R6">
+        <f>I6-H6+IF(I6-H6&lt;=0,120,0)</f>
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <f>$B6+SUM($K6:K6)</f>
+        <v>101</v>
+      </c>
+      <c r="U6">
+        <f>$B6+SUM($K6:L6)</f>
+        <v>132</v>
+      </c>
+      <c r="V6">
+        <f>$B6+SUM($K6:M6)</f>
+        <v>194</v>
+      </c>
+      <c r="W6">
+        <f>$B6+SUM($K6:N6)</f>
+        <v>224</v>
+      </c>
+      <c r="X6">
+        <f>$B6+SUM($K6:O6)</f>
+        <v>320</v>
+      </c>
+      <c r="Y6">
+        <f>$B6+SUM($K6:P6)</f>
+        <v>424</v>
+      </c>
+      <c r="Z6">
+        <f>$B6+SUM($K6:Q6)</f>
+        <v>504</v>
+      </c>
+      <c r="AA6">
+        <f>$B6+SUM($K6:R6)</f>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>37</v>
+      </c>
+      <c r="F7">
+        <v>66</v>
+      </c>
+      <c r="G7">
+        <v>65</v>
+      </c>
+      <c r="H7">
+        <v>78</v>
+      </c>
+      <c r="I7">
+        <v>85</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>C7-B7+IF(C7-B7&lt;=0,120,0)</f>
+        <v>31</v>
+      </c>
+      <c r="M7">
+        <f>D7-C7+IF(D7-C7&lt;=0,120,0)</f>
+        <v>62</v>
+      </c>
+      <c r="N7">
+        <f>E7-D7+IF(E7-D7&lt;=0,120,0)</f>
+        <v>30</v>
+      </c>
+      <c r="O7">
+        <f>F7-E7+IF(F7-E7&lt;=0,120,0)</f>
+        <v>29</v>
+      </c>
+      <c r="P7">
+        <f>G7-F7+IF(G7-F7&lt;=0,120,0)</f>
+        <v>119</v>
+      </c>
+      <c r="Q7">
+        <f>H7-G7+IF(H7-G7&lt;=0,120,0)</f>
+        <v>13</v>
+      </c>
+      <c r="R7">
+        <f>I7-H7+IF(I7-H7&lt;=0,120,0)</f>
+        <v>7</v>
+      </c>
+      <c r="T7">
+        <f>$B7+SUM($K7:K7)</f>
+        <v>34</v>
+      </c>
+      <c r="U7">
+        <f>$B7+SUM($K7:L7)</f>
+        <v>65</v>
+      </c>
+      <c r="V7">
+        <f>$B7+SUM($K7:M7)</f>
+        <v>127</v>
+      </c>
+      <c r="W7">
+        <f>$B7+SUM($K7:N7)</f>
+        <v>157</v>
+      </c>
+      <c r="X7">
+        <f>$B7+SUM($K7:O7)</f>
+        <v>186</v>
+      </c>
+      <c r="Y7">
+        <f>$B7+SUM($K7:P7)</f>
+        <v>305</v>
+      </c>
+      <c r="Z7">
+        <f>$B7+SUM($K7:Q7)</f>
+        <v>318</v>
+      </c>
+      <c r="AA7">
+        <f>$B7+SUM($K7:R7)</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8">
+        <v>73</v>
+      </c>
+      <c r="C8">
+        <v>104</v>
+      </c>
+      <c r="D8">
+        <v>46</v>
+      </c>
+      <c r="E8">
+        <v>75</v>
+      </c>
+      <c r="F8">
+        <v>98</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>81</v>
+      </c>
+      <c r="I8">
+        <v>89</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>C8-B8+IF(C8-B8&lt;=0,120,0)</f>
+        <v>31</v>
+      </c>
+      <c r="M8">
+        <f>D8-C8+IF(D8-C8&lt;=0,120,0)</f>
+        <v>62</v>
+      </c>
+      <c r="N8">
+        <f>E8-D8+IF(E8-D8&lt;=0,120,0)</f>
+        <v>29</v>
+      </c>
+      <c r="O8">
+        <f>F8-E8+IF(F8-E8&lt;=0,120,0)</f>
+        <v>23</v>
+      </c>
+      <c r="P8">
+        <f>G8-F8+IF(G8-F8&lt;=0,120,0)</f>
+        <v>24</v>
+      </c>
+      <c r="Q8">
+        <f>H8-G8+IF(H8-G8&lt;=0,120,0)</f>
+        <v>79</v>
+      </c>
+      <c r="R8">
+        <f>I8-H8+IF(I8-H8&lt;=0,120,0)</f>
+        <v>8</v>
+      </c>
+      <c r="T8">
+        <f>$B8+SUM($K8:K8)</f>
+        <v>73</v>
+      </c>
+      <c r="U8">
+        <f>$B8+SUM($K8:L8)</f>
+        <v>104</v>
+      </c>
+      <c r="V8">
+        <f>$B8+SUM($K8:M8)</f>
+        <v>166</v>
+      </c>
+      <c r="W8">
+        <f>$B8+SUM($K8:N8)</f>
+        <v>195</v>
+      </c>
+      <c r="X8">
+        <f>$B8+SUM($K8:O8)</f>
+        <v>218</v>
+      </c>
+      <c r="Y8">
+        <f>$B8+SUM($K8:P8)</f>
+        <v>242</v>
+      </c>
+      <c r="Z8">
+        <f>$B8+SUM($K8:Q8)</f>
+        <v>321</v>
+      </c>
+      <c r="AA8">
+        <f>$B8+SUM($K8:R8)</f>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9">
+        <v>41</v>
+      </c>
+      <c r="C9">
+        <v>72</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>43</v>
+      </c>
+      <c r="F9">
+        <v>47</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>67</v>
+      </c>
+      <c r="I9">
+        <v>27</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>C9-B9+IF(C9-B9&lt;=0,120,0)</f>
+        <v>31</v>
+      </c>
+      <c r="M9">
+        <f>D9-C9+IF(D9-C9&lt;=0,120,0)</f>
+        <v>63</v>
+      </c>
+      <c r="N9">
+        <f>E9-D9+IF(E9-D9&lt;=0,120,0)</f>
+        <v>28</v>
+      </c>
+      <c r="O9">
+        <f>F9-E9+IF(F9-E9&lt;=0,120,0)</f>
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <f>G9-F9+IF(G9-F9&lt;=0,120,0)</f>
+        <v>79</v>
+      </c>
+      <c r="Q9">
+        <f>H9-G9+IF(H9-G9&lt;=0,120,0)</f>
+        <v>61</v>
+      </c>
+      <c r="R9">
+        <f>I9-H9+IF(I9-H9&lt;=0,120,0)</f>
+        <v>80</v>
+      </c>
+      <c r="T9">
+        <f>$B9+SUM($K9:K9)</f>
+        <v>41</v>
+      </c>
+      <c r="U9">
+        <f>$B9+SUM($K9:L9)</f>
+        <v>72</v>
+      </c>
+      <c r="V9">
+        <f>$B9+SUM($K9:M9)</f>
+        <v>135</v>
+      </c>
+      <c r="W9">
+        <f>$B9+SUM($K9:N9)</f>
+        <v>163</v>
+      </c>
+      <c r="X9">
+        <f>$B9+SUM($K9:O9)</f>
+        <v>167</v>
+      </c>
+      <c r="Y9">
+        <f>$B9+SUM($K9:P9)</f>
+        <v>246</v>
+      </c>
+      <c r="Z9">
+        <f>$B9+SUM($K9:Q9)</f>
+        <v>307</v>
+      </c>
+      <c r="AA9">
+        <f>$B9+SUM($K9:R9)</f>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10">
+        <v>89</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>63</v>
+      </c>
+      <c r="E10">
+        <v>62</v>
+      </c>
+      <c r="F10">
+        <v>89</v>
+      </c>
+      <c r="G10">
+        <v>94</v>
+      </c>
+      <c r="H10">
+        <v>54</v>
+      </c>
+      <c r="I10">
+        <v>61</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>C10-B10+IF(C10-B10&lt;=0,120,0)</f>
+        <v>31</v>
+      </c>
+      <c r="M10">
+        <f>D10-C10+IF(D10-C10&lt;=0,120,0)</f>
+        <v>63</v>
+      </c>
+      <c r="N10">
+        <f>E10-D10+IF(E10-D10&lt;=0,120,0)</f>
+        <v>119</v>
+      </c>
+      <c r="O10">
+        <f>F10-E10+IF(F10-E10&lt;=0,120,0)</f>
+        <v>27</v>
+      </c>
+      <c r="P10">
+        <f>G10-F10+IF(G10-F10&lt;=0,120,0)</f>
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <f>H10-G10+IF(H10-G10&lt;=0,120,0)</f>
+        <v>80</v>
+      </c>
+      <c r="R10">
+        <f>I10-H10+IF(I10-H10&lt;=0,120,0)</f>
+        <v>7</v>
+      </c>
+      <c r="T10">
+        <f>$B10+SUM($K10:K10)</f>
+        <v>89</v>
+      </c>
+      <c r="U10">
+        <f>$B10+SUM($K10:L10)</f>
+        <v>120</v>
+      </c>
+      <c r="V10">
+        <f>$B10+SUM($K10:M10)</f>
+        <v>183</v>
+      </c>
+      <c r="W10">
+        <f>$B10+SUM($K10:N10)</f>
+        <v>302</v>
+      </c>
+      <c r="X10">
+        <f>$B10+SUM($K10:O10)</f>
+        <v>329</v>
+      </c>
+      <c r="Y10">
+        <f>$B10+SUM($K10:P10)</f>
+        <v>334</v>
+      </c>
+      <c r="Z10">
+        <f>$B10+SUM($K10:Q10)</f>
+        <v>414</v>
+      </c>
+      <c r="AA10">
+        <f>$B10+SUM($K10:R10)</f>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>91</v>
+      </c>
+      <c r="D11">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>63</v>
+      </c>
+      <c r="F11">
+        <v>66</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>66</v>
+      </c>
+      <c r="I11">
+        <v>21</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>C11-B11+IF(C11-B11&lt;=0,120,0)</f>
+        <v>31</v>
+      </c>
+      <c r="M11">
+        <f>D11-C11+IF(D11-C11&lt;=0,120,0)</f>
+        <v>63</v>
+      </c>
+      <c r="N11">
+        <f>E11-D11+IF(E11-D11&lt;=0,120,0)</f>
+        <v>29</v>
+      </c>
+      <c r="O11">
+        <f>F11-E11+IF(F11-E11&lt;=0,120,0)</f>
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <f>G11-F11+IF(G11-F11&lt;=0,120,0)</f>
+        <v>56</v>
+      </c>
+      <c r="Q11">
+        <f>H11-G11+IF(H11-G11&lt;=0,120,0)</f>
+        <v>64</v>
+      </c>
+      <c r="R11">
+        <f>I11-H11+IF(I11-H11&lt;=0,120,0)</f>
+        <v>75</v>
+      </c>
+      <c r="T11">
+        <f>$B11+SUM($K11:K11)</f>
+        <v>60</v>
+      </c>
+      <c r="U11">
+        <f>$B11+SUM($K11:L11)</f>
+        <v>91</v>
+      </c>
+      <c r="V11">
+        <f>$B11+SUM($K11:M11)</f>
+        <v>154</v>
+      </c>
+      <c r="W11">
+        <f>$B11+SUM($K11:N11)</f>
+        <v>183</v>
+      </c>
+      <c r="X11">
+        <f>$B11+SUM($K11:O11)</f>
+        <v>186</v>
+      </c>
+      <c r="Y11">
+        <f>$B11+SUM($K11:P11)</f>
+        <v>242</v>
+      </c>
+      <c r="Z11">
+        <f>$B11+SUM($K11:Q11)</f>
+        <v>306</v>
+      </c>
+      <c r="AA11">
+        <f>$B11+SUM($K11:R11)</f>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>71</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>43</v>
+      </c>
+      <c r="F12">
+        <v>45</v>
+      </c>
+      <c r="G12">
+        <v>77</v>
+      </c>
+      <c r="H12">
+        <v>35</v>
+      </c>
+      <c r="I12">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>C12-B12+IF(C12-B12&lt;=0,120,0)</f>
+        <v>31</v>
+      </c>
+      <c r="M12">
+        <f>D12-C12+IF(D12-C12&lt;=0,120,0)</f>
+        <v>63</v>
+      </c>
+      <c r="N12">
+        <f>E12-D12+IF(E12-D12&lt;=0,120,0)</f>
+        <v>29</v>
+      </c>
+      <c r="O12">
+        <f>F12-E12+IF(F12-E12&lt;=0,120,0)</f>
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <f>G12-F12+IF(G12-F12&lt;=0,120,0)</f>
+        <v>32</v>
+      </c>
+      <c r="Q12">
+        <f>H12-G12+IF(H12-G12&lt;=0,120,0)</f>
+        <v>78</v>
+      </c>
+      <c r="R12">
+        <f>I12-H12+IF(I12-H12&lt;=0,120,0)</f>
+        <v>110</v>
+      </c>
+      <c r="T12">
+        <f>$B12+SUM($K12:K12)</f>
+        <v>40</v>
+      </c>
+      <c r="U12">
+        <f>$B12+SUM($K12:L12)</f>
+        <v>71</v>
+      </c>
+      <c r="V12">
+        <f>$B12+SUM($K12:M12)</f>
+        <v>134</v>
+      </c>
+      <c r="W12">
+        <f>$B12+SUM($K12:N12)</f>
+        <v>163</v>
+      </c>
+      <c r="X12">
+        <f>$B12+SUM($K12:O12)</f>
+        <v>165</v>
+      </c>
+      <c r="Y12">
+        <f>$B12+SUM($K12:P12)</f>
+        <v>197</v>
+      </c>
+      <c r="Z12">
+        <f>$B12+SUM($K12:Q12)</f>
+        <v>275</v>
+      </c>
+      <c r="AA12">
+        <f>$B12+SUM($K12:R12)</f>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>68</v>
+      </c>
+      <c r="C13">
+        <v>98</v>
+      </c>
+      <c r="D13">
+        <v>68</v>
+      </c>
+      <c r="E13">
+        <v>111</v>
+      </c>
+      <c r="F13">
+        <v>90</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>76</v>
+      </c>
+      <c r="I13">
+        <v>106</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13:L23" si="0">C13-B13+IF(C13-B13&lt;=0,120,0)</f>
+        <v>30</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:M23" si="1">D13-C13+IF(D13-C13&lt;=0,120,0)</f>
+        <v>90</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13:N23" si="2">E13-D13+IF(E13-D13&lt;=0,120,0)</f>
+        <v>43</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ref="O13:O23" si="3">F13-E13+IF(F13-E13&lt;=0,120,0)</f>
+        <v>99</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13:P23" si="4">G13-F13+IF(G13-F13&lt;=0,120,0)</f>
+        <v>80</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q13:Q23" si="5">H13-G13+IF(H13-G13&lt;=0,120,0)</f>
+        <v>26</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ref="R13:R23" si="6">I13-H13+IF(I13-H13&lt;=0,120,0)</f>
+        <v>30</v>
+      </c>
+      <c r="T13" s="2">
+        <f>$B13+SUM($K13:K13)</f>
+        <v>69</v>
+      </c>
+      <c r="U13" s="2">
+        <f>$B13+SUM($K13:L13)</f>
+        <v>99</v>
+      </c>
+      <c r="V13" s="2">
+        <f>$B13+SUM($K13:M13)</f>
+        <v>189</v>
+      </c>
+      <c r="W13" s="2">
+        <f>$B13+SUM($K13:N13)</f>
+        <v>232</v>
+      </c>
+      <c r="X13" s="2">
+        <f>$B13+SUM($K13:O13)</f>
+        <v>331</v>
+      </c>
+      <c r="Y13" s="2">
+        <f>$B13+SUM($K13:P13)</f>
+        <v>411</v>
+      </c>
+      <c r="Z13" s="2">
+        <f>$B13+SUM($K13:Q13)</f>
+        <v>437</v>
+      </c>
+      <c r="AA13" s="2">
+        <f>$B13+SUM($K13:R13)</f>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14">
+        <v>68</v>
+      </c>
+      <c r="C14">
+        <v>98</v>
+      </c>
+      <c r="D14">
+        <v>71</v>
+      </c>
+      <c r="E14">
+        <v>53</v>
+      </c>
+      <c r="F14">
+        <v>96</v>
+      </c>
+      <c r="G14">
+        <v>55</v>
+      </c>
+      <c r="H14">
+        <v>21</v>
+      </c>
+      <c r="I14">
+        <v>96</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="T14" s="2">
+        <f>$B14+SUM($K14:K14)</f>
+        <v>70</v>
+      </c>
+      <c r="U14" s="2">
+        <f>$B14+SUM($K14:L14)</f>
+        <v>100</v>
+      </c>
+      <c r="V14" s="2">
+        <f>$B14+SUM($K14:M14)</f>
+        <v>193</v>
+      </c>
+      <c r="W14" s="2">
+        <f>$B14+SUM($K14:N14)</f>
+        <v>295</v>
+      </c>
+      <c r="X14" s="2">
+        <f>$B14+SUM($K14:O14)</f>
+        <v>338</v>
+      </c>
+      <c r="Y14" s="2">
+        <f>$B14+SUM($K14:P14)</f>
+        <v>417</v>
+      </c>
+      <c r="Z14" s="2">
+        <f>$B14+SUM($K14:Q14)</f>
+        <v>503</v>
+      </c>
+      <c r="AA14" s="2">
+        <f>$B14+SUM($K14:R14)</f>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>114</v>
+      </c>
+      <c r="E15">
+        <v>94</v>
+      </c>
+      <c r="F15">
+        <v>75</v>
+      </c>
+      <c r="G15">
+        <v>42</v>
+      </c>
+      <c r="H15">
+        <v>66</v>
+      </c>
+      <c r="I15">
+        <v>51</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+      <c r="T15" s="2">
+        <f>$B15+SUM($K15:K15)</f>
+        <v>10</v>
+      </c>
+      <c r="U15" s="2">
+        <f>$B15+SUM($K15:L15)</f>
+        <v>40</v>
+      </c>
+      <c r="V15" s="2">
+        <f>$B15+SUM($K15:M15)</f>
+        <v>117</v>
+      </c>
+      <c r="W15" s="2">
+        <f>$B15+SUM($K15:N15)</f>
+        <v>217</v>
+      </c>
+      <c r="X15" s="2">
+        <f>$B15+SUM($K15:O15)</f>
+        <v>318</v>
+      </c>
+      <c r="Y15" s="2">
+        <f>$B15+SUM($K15:P15)</f>
+        <v>405</v>
+      </c>
+      <c r="Z15" s="2">
+        <f>$B15+SUM($K15:Q15)</f>
+        <v>429</v>
+      </c>
+      <c r="AA15" s="2">
+        <f>$B15+SUM($K15:R15)</f>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16">
+        <v>86</v>
+      </c>
+      <c r="C16">
+        <v>116</v>
+      </c>
+      <c r="D16">
+        <v>75</v>
+      </c>
+      <c r="E16">
+        <v>56</v>
+      </c>
+      <c r="F16">
+        <v>34</v>
+      </c>
+      <c r="G16">
+        <v>114</v>
+      </c>
+      <c r="H16">
+        <v>74</v>
+      </c>
+      <c r="I16">
+        <v>60</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>106</v>
+      </c>
+      <c r="T16" s="2">
+        <f>$B16+SUM($K16:K16)</f>
+        <v>90</v>
+      </c>
+      <c r="U16" s="2">
+        <f>$B16+SUM($K16:L16)</f>
+        <v>120</v>
+      </c>
+      <c r="V16" s="2">
+        <f>$B16+SUM($K16:M16)</f>
+        <v>199</v>
+      </c>
+      <c r="W16" s="2">
+        <f>$B16+SUM($K16:N16)</f>
+        <v>300</v>
+      </c>
+      <c r="X16" s="2">
+        <f>$B16+SUM($K16:O16)</f>
+        <v>398</v>
+      </c>
+      <c r="Y16" s="2">
+        <f>$B16+SUM($K16:P16)</f>
+        <v>478</v>
+      </c>
+      <c r="Z16" s="2">
+        <f>$B16+SUM($K16:Q16)</f>
+        <v>558</v>
+      </c>
+      <c r="AA16" s="2">
+        <f>$B16+SUM($K16:R16)</f>
+        <v>664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17">
+        <v>86</v>
+      </c>
+      <c r="C17">
+        <v>116</v>
+      </c>
+      <c r="D17">
+        <v>75</v>
+      </c>
+      <c r="E17">
+        <v>56</v>
+      </c>
+      <c r="F17">
+        <v>34</v>
+      </c>
+      <c r="G17">
+        <v>114</v>
+      </c>
+      <c r="H17">
+        <v>74</v>
+      </c>
+      <c r="I17">
+        <v>60</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="6"/>
+        <v>106</v>
+      </c>
+      <c r="T17" s="2">
+        <f>$B17+SUM($K17:K17)</f>
+        <v>91</v>
+      </c>
+      <c r="U17" s="2">
+        <f>$B17+SUM($K17:L17)</f>
+        <v>121</v>
+      </c>
+      <c r="V17" s="2">
+        <f>$B17+SUM($K17:M17)</f>
+        <v>200</v>
+      </c>
+      <c r="W17" s="2">
+        <f>$B17+SUM($K17:N17)</f>
+        <v>301</v>
+      </c>
+      <c r="X17" s="2">
+        <f>$B17+SUM($K17:O17)</f>
+        <v>399</v>
+      </c>
+      <c r="Y17" s="2">
+        <f>$B17+SUM($K17:P17)</f>
+        <v>479</v>
+      </c>
+      <c r="Z17" s="2">
+        <f>$B17+SUM($K17:Q17)</f>
+        <v>559</v>
+      </c>
+      <c r="AA17" s="2">
+        <f>$B17+SUM($K17:R17)</f>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18">
+        <v>83</v>
+      </c>
+      <c r="C18">
+        <v>113</v>
+      </c>
+      <c r="D18">
+        <v>70</v>
+      </c>
+      <c r="E18">
+        <v>114</v>
+      </c>
+      <c r="F18">
+        <v>71</v>
+      </c>
+      <c r="G18">
+        <v>39</v>
+      </c>
+      <c r="H18">
+        <v>118</v>
+      </c>
+      <c r="I18">
+        <v>72</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="T18">
+        <f>$B18+SUM($K18:K18)</f>
+        <v>89</v>
+      </c>
+      <c r="U18">
+        <f>$B18+SUM($K18:L18)</f>
+        <v>119</v>
+      </c>
+      <c r="V18">
+        <f>$B18+SUM($K18:M18)</f>
+        <v>196</v>
+      </c>
+      <c r="W18">
+        <f>$B18+SUM($K18:N18)</f>
+        <v>240</v>
+      </c>
+      <c r="X18">
+        <f>$B18+SUM($K18:O18)</f>
+        <v>317</v>
+      </c>
+      <c r="Y18">
+        <f>$B18+SUM($K18:P18)</f>
+        <v>405</v>
+      </c>
+      <c r="Z18">
+        <f>$B18+SUM($K18:Q18)</f>
+        <v>484</v>
+      </c>
+      <c r="AA18">
+        <f>$B18+SUM($K18:R18)</f>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>62</v>
+      </c>
+      <c r="D19">
+        <v>83</v>
+      </c>
+      <c r="E19">
+        <v>61</v>
+      </c>
+      <c r="F19">
+        <v>105</v>
+      </c>
+      <c r="G19">
+        <v>64</v>
+      </c>
+      <c r="H19">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <v>44</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="T19">
+        <f>$B19+SUM($K19:K19)</f>
+        <v>38</v>
+      </c>
+      <c r="U19">
+        <f>$B19+SUM($K19:L19)</f>
+        <v>69</v>
+      </c>
+      <c r="V19">
+        <f>$B19+SUM($K19:M19)</f>
+        <v>90</v>
+      </c>
+      <c r="W19">
+        <f>$B19+SUM($K19:N19)</f>
+        <v>188</v>
+      </c>
+      <c r="X19">
+        <f>$B19+SUM($K19:O19)</f>
+        <v>232</v>
+      </c>
+      <c r="Y19">
+        <f>$B19+SUM($K19:P19)</f>
+        <v>311</v>
+      </c>
+      <c r="Z19">
+        <f>$B19+SUM($K19:Q19)</f>
+        <v>392</v>
+      </c>
+      <c r="AA19">
+        <f>$B19+SUM($K19:R19)</f>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20">
+        <v>69</v>
+      </c>
+      <c r="C20">
+        <v>99</v>
+      </c>
+      <c r="D20">
+        <v>73</v>
+      </c>
+      <c r="E20">
+        <v>57</v>
+      </c>
+      <c r="F20">
+        <v>54</v>
+      </c>
+      <c r="G20">
+        <v>79</v>
+      </c>
+      <c r="H20">
+        <v>38</v>
+      </c>
+      <c r="I20">
+        <v>105</v>
+      </c>
+      <c r="K20">
+        <v>8</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="T20">
+        <f>$B20+SUM($K20:K20)</f>
+        <v>77</v>
+      </c>
+      <c r="U20">
+        <f>$B20+SUM($K20:L20)</f>
+        <v>107</v>
+      </c>
+      <c r="V20">
+        <f>$B20+SUM($K20:M20)</f>
+        <v>201</v>
+      </c>
+      <c r="W20">
+        <f>$B20+SUM($K20:N20)</f>
+        <v>305</v>
+      </c>
+      <c r="X20">
+        <f>$B20+SUM($K20:O20)</f>
+        <v>422</v>
+      </c>
+      <c r="Y20">
+        <f>$B20+SUM($K20:P20)</f>
+        <v>447</v>
+      </c>
+      <c r="Z20">
+        <f>$B20+SUM($K20:Q20)</f>
+        <v>526</v>
+      </c>
+      <c r="AA20">
+        <f>$B20+SUM($K20:R20)</f>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21">
+        <v>47</v>
+      </c>
+      <c r="C21">
+        <v>79</v>
+      </c>
+      <c r="D21">
+        <v>103</v>
+      </c>
+      <c r="E21">
+        <v>60</v>
+      </c>
+      <c r="F21">
+        <v>58</v>
+      </c>
+      <c r="G21">
+        <v>82</v>
+      </c>
+      <c r="H21">
+        <v>41</v>
+      </c>
+      <c r="I21">
+        <v>58</v>
+      </c>
+      <c r="K21">
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="T21">
+        <f>$B21+SUM($K21:K21)</f>
+        <v>56</v>
+      </c>
+      <c r="U21">
+        <f>$B21+SUM($K21:L21)</f>
+        <v>88</v>
+      </c>
+      <c r="V21">
+        <f>$B21+SUM($K21:M21)</f>
+        <v>112</v>
+      </c>
+      <c r="W21">
+        <f>$B21+SUM($K21:N21)</f>
+        <v>189</v>
+      </c>
+      <c r="X21">
+        <f>$B21+SUM($K21:O21)</f>
+        <v>307</v>
+      </c>
+      <c r="Y21">
+        <f>$B21+SUM($K21:P21)</f>
+        <v>331</v>
+      </c>
+      <c r="Z21">
+        <f>$B21+SUM($K21:Q21)</f>
+        <v>410</v>
+      </c>
+      <c r="AA21">
+        <f>$B21+SUM($K21:R21)</f>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <v>68</v>
+      </c>
+      <c r="D22">
+        <v>90</v>
+      </c>
+      <c r="E22">
+        <v>69</v>
+      </c>
+      <c r="F22">
+        <v>47</v>
+      </c>
+      <c r="G22">
+        <v>72</v>
+      </c>
+      <c r="H22">
+        <v>31</v>
+      </c>
+      <c r="I22">
+        <v>98</v>
+      </c>
+      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="T22">
+        <f>$B22+SUM($K22:K22)</f>
+        <v>48</v>
+      </c>
+      <c r="U22">
+        <f>$B22+SUM($K22:L22)</f>
+        <v>78</v>
+      </c>
+      <c r="V22">
+        <f>$B22+SUM($K22:M22)</f>
+        <v>100</v>
+      </c>
+      <c r="W22">
+        <f>$B22+SUM($K22:N22)</f>
+        <v>199</v>
+      </c>
+      <c r="X22">
+        <f>$B22+SUM($K22:O22)</f>
+        <v>297</v>
+      </c>
+      <c r="Y22">
+        <f>$B22+SUM($K22:P22)</f>
+        <v>322</v>
+      </c>
+      <c r="Z22">
+        <f>$B22+SUM($K22:Q22)</f>
+        <v>401</v>
+      </c>
+      <c r="AA22">
+        <f>$B22+SUM($K22:R22)</f>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23">
+        <v>86</v>
+      </c>
+      <c r="C23">
+        <v>116</v>
+      </c>
+      <c r="D23">
+        <v>81</v>
+      </c>
+      <c r="E23">
+        <v>64</v>
+      </c>
+      <c r="F23">
+        <v>106</v>
+      </c>
+      <c r="G23">
+        <v>65</v>
+      </c>
+      <c r="H23">
+        <v>30</v>
+      </c>
+      <c r="I23">
+        <v>54</v>
+      </c>
+      <c r="K23">
+        <v>11</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="T23">
+        <f>$B23+SUM($K23:K23)</f>
+        <v>97</v>
+      </c>
+      <c r="U23">
+        <f>$B23+SUM($K23:L23)</f>
+        <v>127</v>
+      </c>
+      <c r="V23">
+        <f>$B23+SUM($K23:M23)</f>
+        <v>212</v>
+      </c>
+      <c r="W23">
+        <f>$B23+SUM($K23:N23)</f>
+        <v>315</v>
+      </c>
+      <c r="X23">
+        <f>$B23+SUM($K23:O23)</f>
+        <v>357</v>
+      </c>
+      <c r="Y23">
+        <f>$B23+SUM($K23:P23)</f>
+        <v>436</v>
+      </c>
+      <c r="Z23">
+        <f>$B23+SUM($K23:Q23)</f>
+        <v>521</v>
+      </c>
+      <c r="AA23">
+        <f>$B23+SUM($K23:R23)</f>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AB27">
+        <f>B1</f>
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" ref="AC27:AH27" si="7">C1</f>
+        <v>500</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="7"/>
+        <v>1500</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="7"/>
+        <v>2500</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="7"/>
+        <v>2750</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="AI27">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AB28">
+        <f>AVERAGE(T3:T12)-AVERAGE($T$3:$T$12)</f>
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" ref="AC28:AI28" si="8">AVERAGE(U3:U12)-AVERAGE($T$3:$T$12)</f>
+        <v>30.999999999999993</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="8"/>
+        <v>93.800000000000011</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="8"/>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="8"/>
+        <v>158.5</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="8"/>
+        <v>226.50000000000003</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="8"/>
+        <v>288.29999999999995</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="8"/>
+        <v>330.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" ref="AC29:AI29" si="9">_xlfn.STDEV.P(C3:C12)</f>
+        <v>34.191958118832559</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="9"/>
+        <v>30.26037012331475</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="9"/>
+        <v>30.630213841891475</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="9"/>
+        <v>25.973832986296035</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="9"/>
+        <v>36.674786979613117</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="9"/>
+        <v>23.393161393877484</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="9"/>
+        <v>30.607352057961499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AB30">
+        <f>AVERAGE(T13:T23) - AVERAGE($T$13:$T$23)</f>
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" ref="AC30:AI30" si="10">AVERAGE(U13:U23) - AVERAGE($T$13:$T$23)</f>
+        <v>30.27272727272728</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="10"/>
+        <v>97.636363636363654</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="10"/>
+        <v>186</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="10"/>
+        <v>271</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="10"/>
+        <v>337</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="10"/>
+        <v>407.72727272727275</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="10"/>
+        <v>470.45454545454544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" ref="AC31:AI31" si="11">_xlfn.STDEV.P(C13:C23)</f>
+        <v>25.13763764649099</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="11"/>
+        <v>14.04832274333226</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="11"/>
+        <v>21.751033033318876</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="11"/>
+        <v>25.484398079110001</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="11"/>
+        <v>24.362279473748444</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="11"/>
+        <v>28.578440697967984</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="11"/>
+        <v>22.395026012100203</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A13:A23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>